--- a/Nazmun's Cosmetics.xlsx
+++ b/Nazmun's Cosmetics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeem191323.CORP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7087B-41E4-4D4F-AECA-E6147901BD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991C138-987C-4A25-9508-CD4D9E1109F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{4F202C37-C062-44B3-BFA5-DDECEE870BCC}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>For</t>
   </si>
   <si>
-    <t>Bihongi Face Wash</t>
-  </si>
-  <si>
     <t>Skin</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Hair Growth</t>
+  </si>
+  <si>
+    <t>Bihangi Face Wash</t>
   </si>
 </sst>
 </file>
@@ -103,12 +103,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,16 +144,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$₹-460]\ * #,##0.00_-;\-[$₹-460]\ * #,##0.00_-;_-[$₹-460]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,9 +188,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB16AC14-9810-41FB-9D5F-EF761710357F}" name="Table1" displayName="Table1" ref="E4:H14" totalsRowShown="0">
-  <autoFilter ref="E4:H14" xr:uid="{DEBCD570-9DF8-4036-8DA6-4852A255DD4A}"/>
+  <autoFilter ref="E4:H14" xr:uid="{DEBCD570-9DF8-4036-8DA6-4852A255DD4A}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B54E2CA-0EE8-4988-8A58-B9ED899B742E}" name="#" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1B54E2CA-0EE8-4988-8A58-B9ED899B742E}" name="#" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{D3F14000-9564-43D7-AF22-F83307933788}" name="Product"/>
     <tableColumn id="3" xr3:uid="{96DABCE7-D49A-47F4-9E11-89B931BD30E6}" name="For"/>
     <tableColumn id="4" xr3:uid="{7F3B975E-8664-44A9-800C-BE539EF561C0}" name="Price" dataDxfId="1"/>
@@ -469,7 +503,7 @@
   <dimension ref="E3:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +516,7 @@
   <sheetData>
     <row r="3" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.35">
@@ -504,26 +538,26 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E6" s="1">
+    <row r="6" spans="5:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
         <v>400</v>
       </c>
     </row>
@@ -532,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
         <v>359</v>
@@ -546,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>550</v>
@@ -560,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2">
         <v>399</v>
@@ -574,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
         <v>550</v>
@@ -588,47 +622,47 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
       </c>
       <c r="H11" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="1">
+    <row r="12" spans="5:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="7">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2">
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9">
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="1">
+    <row r="13" spans="5:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="4">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6">
         <v>472</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2">
         <f>SUM(H5:H13)</f>
